--- a/Project/Excel Files/Close_FD.xlsx
+++ b/Project/Excel Files/Close_FD.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16272148-906D-4CAF-9DFA-9DAF4135522B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3C4E01-4ACE-4C40-B9C5-2B0A1AE9D298}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="46">
   <si>
     <t>Keyword</t>
   </si>
@@ -89,27 +89,9 @@
     <t>/html/body/div[1]/div[1]/nav/ul/li[4]/ul/li[1]/ul/li[3]/a</t>
   </si>
   <si>
-    <t>active-result</t>
-  </si>
-  <si>
-    <t>classname</t>
-  </si>
-  <si>
     <t>SELECT1</t>
   </si>
   <si>
-    <t>add</t>
-  </si>
-  <si>
-    <t>//*[@id="member_chosen"]/a/span</t>
-  </si>
-  <si>
-    <t>//*[@id="accountid_chosen"]/a/span</t>
-  </si>
-  <si>
-    <t>//*[@id="command"]/div/div/div[1]/div/div[8]/div</t>
-  </si>
-  <si>
     <t>TIMEOUT</t>
   </si>
   <si>
@@ -122,9 +104,6 @@
     <t>accountNumber</t>
   </si>
   <si>
-    <t>confirm</t>
-  </si>
-  <si>
     <t>!&amp;DataSheet</t>
   </si>
   <si>
@@ -140,34 +119,56 @@
     <t>MOVETO</t>
   </si>
   <si>
-    <t>//*[@id="submit"]</t>
-  </si>
-  <si>
     <t>FD 16245</t>
   </si>
   <si>
     <t>FD 804</t>
   </si>
   <si>
-    <t>//*[@id="action_chosen"]/a/div/b</t>
+    <t>member_chosen</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>action_chosen</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>//*[@id="action_chosen"]/div/ul</t>
+  </si>
+  <si>
+    <t>//*[@id="member_chosen"]/div/ul</t>
+  </si>
+  <si>
+    <t>accountid_chosen</t>
+  </si>
+  <si>
+    <t>//*[@id="accountid_chosen"]/div/ul/</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>confirm_action</t>
+  </si>
+  <si>
+    <t>action_confirm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -217,24 +218,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -513,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,25 +525,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -570,7 +565,7 @@
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2"/>
@@ -587,7 +582,7 @@
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="2"/>
@@ -604,7 +599,7 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2"/>
@@ -621,14 +616,14 @@
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3"/>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>17</v>
@@ -642,8 +637,8 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4" t="s">
-        <v>38</v>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>18</v>
@@ -657,13 +652,13 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="2"/>
@@ -672,143 +667,139 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="4"/>
+      <c r="C10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>30</v>
-      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="2"/>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="2"/>
+      <c r="E12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="G12" s="2"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="8" t="s">
-        <v>35</v>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
+      <c r="B14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="2"/>
+      <c r="F15" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>32</v>
-      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" s="4" t="s">
+      <c r="B17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="9" t="s">
-        <v>35</v>
+      <c r="E18" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -818,15 +809,47 @@
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
+      <c r="C19" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -840,10 +863,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E780AC2D-FA0B-4BCA-8577-F5784B0FB2D1}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,39 +874,49 @@
     <col min="1" max="1" width="15.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="D3" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
